--- a/ValueSet-Excreta.xlsx
+++ b/ValueSet-Excreta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T17:22:35+00:00</t>
+    <t>2021-12-03T09:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-Excreta.xlsx
+++ b/ValueSet-Excreta.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-03T09:19:30+00:00</t>
+    <t>2021-12-03</t>
   </si>
   <si>
     <t>Publisher</t>
